--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,75 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Ecuador Primera Categoría Serie B</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Cuniburo</t>
+  </si>
+  <si>
+    <t>Vargas Torres</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Independiente Juniors</t>
+  </si>
+  <si>
+    <t>Chacaritas</t>
+  </si>
+  <si>
+    <t>América de Quito</t>
+  </si>
+  <si>
+    <t>Manta FC</t>
+  </si>
+  <si>
+    <t>9 de Octubre</t>
+  </si>
+  <si>
+    <t>Imbabura SC</t>
+  </si>
+  <si>
+    <t>Macará</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['35', '38', '45']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +821,961 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5539300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45006.875</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.49</v>
+      </c>
+      <c r="X2">
+        <v>2.38</v>
+      </c>
+      <c r="Y2">
+        <v>3.22</v>
+      </c>
+      <c r="Z2">
+        <v>1.3</v>
+      </c>
+      <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AB2">
+        <v>1.06</v>
+      </c>
+      <c r="AC2">
+        <v>3.62</v>
+      </c>
+      <c r="AD2">
+        <v>3.24</v>
+      </c>
+      <c r="AE2">
+        <v>2.02</v>
+      </c>
+      <c r="AF2">
+        <v>1.08</v>
+      </c>
+      <c r="AG2">
+        <v>8</v>
+      </c>
+      <c r="AH2">
+        <v>1.39</v>
+      </c>
+      <c r="AI2">
+        <v>2.7</v>
+      </c>
+      <c r="AJ2">
+        <v>2.16</v>
+      </c>
+      <c r="AK2">
+        <v>1.57</v>
+      </c>
+      <c r="AL2">
+        <v>1.85</v>
+      </c>
+      <c r="AM2">
+        <v>1.85</v>
+      </c>
+      <c r="AN2">
+        <v>1.6</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.2</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>3</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
+        <v>8</v>
+      </c>
+      <c r="BI2">
+        <v>5</v>
+      </c>
+      <c r="BJ2">
+        <v>11</v>
+      </c>
+      <c r="BK2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5539303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45007.70833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>2.25</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3.04</v>
+      </c>
+      <c r="Y3">
+        <v>2.53</v>
+      </c>
+      <c r="Z3">
+        <v>1.46</v>
+      </c>
+      <c r="AA3">
+        <v>5.4</v>
+      </c>
+      <c r="AB3">
+        <v>1.12</v>
+      </c>
+      <c r="AC3">
+        <v>2.56</v>
+      </c>
+      <c r="AD3">
+        <v>3.52</v>
+      </c>
+      <c r="AE3">
+        <v>2.43</v>
+      </c>
+      <c r="AF3">
+        <v>1.03</v>
+      </c>
+      <c r="AG3">
+        <v>13</v>
+      </c>
+      <c r="AH3">
+        <v>1.18</v>
+      </c>
+      <c r="AI3">
+        <v>4.5</v>
+      </c>
+      <c r="AJ3">
+        <v>1.6</v>
+      </c>
+      <c r="AK3">
+        <v>2.1</v>
+      </c>
+      <c r="AL3">
+        <v>1.52</v>
+      </c>
+      <c r="AM3">
+        <v>2.35</v>
+      </c>
+      <c r="AN3">
+        <v>1.5</v>
+      </c>
+      <c r="AO3">
+        <v>1.25</v>
+      </c>
+      <c r="AP3">
+        <v>1.45</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
+        <v>7</v>
+      </c>
+      <c r="BI3">
+        <v>7</v>
+      </c>
+      <c r="BJ3">
+        <v>11</v>
+      </c>
+      <c r="BK3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5539304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45007.70833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>3.1</v>
+      </c>
+      <c r="W4">
+        <v>1.48</v>
+      </c>
+      <c r="X4">
+        <v>2.47</v>
+      </c>
+      <c r="Y4">
+        <v>3.28</v>
+      </c>
+      <c r="Z4">
+        <v>1.29</v>
+      </c>
+      <c r="AA4">
+        <v>8.9</v>
+      </c>
+      <c r="AB4">
+        <v>1.03</v>
+      </c>
+      <c r="AC4">
+        <v>2.7</v>
+      </c>
+      <c r="AD4">
+        <v>3.2</v>
+      </c>
+      <c r="AE4">
+        <v>2.38</v>
+      </c>
+      <c r="AF4">
+        <v>1.07</v>
+      </c>
+      <c r="AG4">
+        <v>8.25</v>
+      </c>
+      <c r="AH4">
+        <v>1.4</v>
+      </c>
+      <c r="AI4">
+        <v>2.64</v>
+      </c>
+      <c r="AJ4">
+        <v>2.3</v>
+      </c>
+      <c r="AK4">
+        <v>1.6</v>
+      </c>
+      <c r="AL4">
+        <v>1.92</v>
+      </c>
+      <c r="AM4">
+        <v>1.84</v>
+      </c>
+      <c r="AN4">
+        <v>1.43</v>
+      </c>
+      <c r="AO4">
+        <v>1.32</v>
+      </c>
+      <c r="AP4">
+        <v>1.42</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>6</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>4</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>10</v>
+      </c>
+      <c r="BK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5539301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45007.875</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>2.05</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>2.6</v>
+      </c>
+      <c r="Y5">
+        <v>3.1</v>
+      </c>
+      <c r="Z5">
+        <v>1.33</v>
+      </c>
+      <c r="AA5">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>1.04</v>
+      </c>
+      <c r="AC5">
+        <v>2.06</v>
+      </c>
+      <c r="AD5">
+        <v>3.24</v>
+      </c>
+      <c r="AE5">
+        <v>3.5</v>
+      </c>
+      <c r="AF5">
+        <v>1.07</v>
+      </c>
+      <c r="AG5">
+        <v>8.85</v>
+      </c>
+      <c r="AH5">
+        <v>1.39</v>
+      </c>
+      <c r="AI5">
+        <v>2.79</v>
+      </c>
+      <c r="AJ5">
+        <v>2.17</v>
+      </c>
+      <c r="AK5">
+        <v>1.61</v>
+      </c>
+      <c r="AL5">
+        <v>1.9</v>
+      </c>
+      <c r="AM5">
+        <v>1.78</v>
+      </c>
+      <c r="AN5">
+        <v>1.3</v>
+      </c>
+      <c r="AO5">
+        <v>1.32</v>
+      </c>
+      <c r="AP5">
+        <v>1.68</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>6</v>
+      </c>
+      <c r="BH5">
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <v>2</v>
+      </c>
+      <c r="BJ5">
+        <v>10</v>
+      </c>
+      <c r="BK5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5539302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45008.875</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>3.5</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>3.1</v>
+      </c>
+      <c r="W6">
+        <v>1.51</v>
+      </c>
+      <c r="X6">
+        <v>2.39</v>
+      </c>
+      <c r="Y6">
+        <v>3.42</v>
+      </c>
+      <c r="Z6">
+        <v>1.27</v>
+      </c>
+      <c r="AA6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>1.04</v>
+      </c>
+      <c r="AC6">
+        <v>2.78</v>
+      </c>
+      <c r="AD6">
+        <v>3.05</v>
+      </c>
+      <c r="AE6">
+        <v>2.43</v>
+      </c>
+      <c r="AF6">
+        <v>1.09</v>
+      </c>
+      <c r="AG6">
+        <v>8.4</v>
+      </c>
+      <c r="AH6">
+        <v>1.46</v>
+      </c>
+      <c r="AI6">
+        <v>2.55</v>
+      </c>
+      <c r="AJ6">
+        <v>2.14</v>
+      </c>
+      <c r="AK6">
+        <v>1.58</v>
+      </c>
+      <c r="AL6">
+        <v>2.1</v>
+      </c>
+      <c r="AM6">
+        <v>1.65</v>
+      </c>
+      <c r="AN6">
+        <v>1.5</v>
+      </c>
+      <c r="AO6">
+        <v>1.33</v>
+      </c>
+      <c r="AP6">
+        <v>1.36</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>2</v>
+      </c>
+      <c r="BG6">
+        <v>5</v>
+      </c>
+      <c r="BH6">
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <v>6</v>
+      </c>
+      <c r="BJ6">
+        <v>7</v>
+      </c>
+      <c r="BK6">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,12 +226,12 @@
     <t>Chacaritas</t>
   </si>
   <si>
+    <t>Manta FC</t>
+  </si>
+  <si>
     <t>América de Quito</t>
   </si>
   <si>
-    <t>Manta FC</t>
-  </si>
-  <si>
     <t>9 de Octubre</t>
   </si>
   <si>
@@ -256,6 +256,12 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['4503']</t>
+  </si>
+  <si>
     <t>['35', '38', '45']</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +853,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -868,7 +877,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1035,7 +1044,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1250,7 +1259,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1632,7 +1641,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1774,6 +1783,388 @@
       </c>
       <c r="BK6">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5539309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <v>2.63</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>4.75</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>2.24</v>
+      </c>
+      <c r="Y7">
+        <v>3.48</v>
+      </c>
+      <c r="Z7">
+        <v>1.26</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1.85</v>
+      </c>
+      <c r="AD7">
+        <v>3.1</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>1.09</v>
+      </c>
+      <c r="AG7">
+        <v>7.65</v>
+      </c>
+      <c r="AH7">
+        <v>1.45</v>
+      </c>
+      <c r="AI7">
+        <v>2.52</v>
+      </c>
+      <c r="AJ7">
+        <v>2.5</v>
+      </c>
+      <c r="AK7">
+        <v>1.5</v>
+      </c>
+      <c r="AL7">
+        <v>2.1</v>
+      </c>
+      <c r="AM7">
+        <v>1.65</v>
+      </c>
+      <c r="AN7">
+        <v>1.22</v>
+      </c>
+      <c r="AO7">
+        <v>1.3</v>
+      </c>
+      <c r="AP7">
+        <v>1.8</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>-1</v>
+      </c>
+      <c r="BG7">
+        <v>-1</v>
+      </c>
+      <c r="BH7">
+        <v>-1</v>
+      </c>
+      <c r="BI7">
+        <v>-1</v>
+      </c>
+      <c r="BJ7">
+        <v>-1</v>
+      </c>
+      <c r="BK7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5539308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45010.83333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>2.63</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>4.33</v>
+      </c>
+      <c r="W8">
+        <v>1.51</v>
+      </c>
+      <c r="X8">
+        <v>2.36</v>
+      </c>
+      <c r="Y8">
+        <v>3.2</v>
+      </c>
+      <c r="Z8">
+        <v>1.3</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1.93</v>
+      </c>
+      <c r="AD8">
+        <v>3.2</v>
+      </c>
+      <c r="AE8">
+        <v>3.8</v>
+      </c>
+      <c r="AF8">
+        <v>1.08</v>
+      </c>
+      <c r="AG8">
+        <v>6.5</v>
+      </c>
+      <c r="AH8">
+        <v>1.43</v>
+      </c>
+      <c r="AI8">
+        <v>2.6</v>
+      </c>
+      <c r="AJ8">
+        <v>2.33</v>
+      </c>
+      <c r="AK8">
+        <v>1.54</v>
+      </c>
+      <c r="AL8">
+        <v>2.05</v>
+      </c>
+      <c r="AM8">
+        <v>1.66</v>
+      </c>
+      <c r="AN8">
+        <v>1.24</v>
+      </c>
+      <c r="AO8">
+        <v>1.32</v>
+      </c>
+      <c r="AP8">
+        <v>1.78</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>4</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>5</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8">
+        <v>9</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,12 +232,12 @@
     <t>América de Quito</t>
   </si>
   <si>
+    <t>Imbabura SC</t>
+  </si>
+  <si>
     <t>9 de Octubre</t>
   </si>
   <si>
-    <t>Imbabura SC</t>
-  </si>
-  <si>
     <t>Macará</t>
   </si>
   <si>
@@ -262,6 +262,12 @@
     <t>['4503']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['4', '33', '47', '67', '89']</t>
+  </si>
+  <si>
     <t>['35', '38', '45']</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['2', '90+10']</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,7 +886,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1235,7 +1244,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1259,7 +1268,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1426,7 +1435,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1641,7 +1650,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2023,7 +2032,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2165,6 +2174,579 @@
       </c>
       <c r="BK8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5539307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45011.54166666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.91</v>
+      </c>
+      <c r="V9">
+        <v>3.75</v>
+      </c>
+      <c r="W9">
+        <v>1.57</v>
+      </c>
+      <c r="X9">
+        <v>2.26</v>
+      </c>
+      <c r="Y9">
+        <v>3.48</v>
+      </c>
+      <c r="Z9">
+        <v>1.26</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>2.2</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>1.09</v>
+      </c>
+      <c r="AG9">
+        <v>7.35</v>
+      </c>
+      <c r="AH9">
+        <v>1.46</v>
+      </c>
+      <c r="AI9">
+        <v>2.53</v>
+      </c>
+      <c r="AJ9">
+        <v>2.5</v>
+      </c>
+      <c r="AK9">
+        <v>1.5</v>
+      </c>
+      <c r="AL9">
+        <v>2.05</v>
+      </c>
+      <c r="AM9">
+        <v>1.7</v>
+      </c>
+      <c r="AN9">
+        <v>1.32</v>
+      </c>
+      <c r="AO9">
+        <v>1.36</v>
+      </c>
+      <c r="AP9">
+        <v>1.52</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>3</v>
+      </c>
+      <c r="BG9">
+        <v>6</v>
+      </c>
+      <c r="BH9">
+        <v>12</v>
+      </c>
+      <c r="BI9">
+        <v>7</v>
+      </c>
+      <c r="BJ9">
+        <v>15</v>
+      </c>
+      <c r="BK9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5539306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45011.72916666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
+        <v>4.33</v>
+      </c>
+      <c r="W10">
+        <v>1.56</v>
+      </c>
+      <c r="X10">
+        <v>2.39</v>
+      </c>
+      <c r="Y10">
+        <v>3.42</v>
+      </c>
+      <c r="Z10">
+        <v>1.27</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>3.25</v>
+      </c>
+      <c r="AE10">
+        <v>3.25</v>
+      </c>
+      <c r="AF10">
+        <v>1.11</v>
+      </c>
+      <c r="AG10">
+        <v>6</v>
+      </c>
+      <c r="AH10">
+        <v>1.43</v>
+      </c>
+      <c r="AI10">
+        <v>2.54</v>
+      </c>
+      <c r="AJ10">
+        <v>2.4</v>
+      </c>
+      <c r="AK10">
+        <v>1.5</v>
+      </c>
+      <c r="AL10">
+        <v>2.02</v>
+      </c>
+      <c r="AM10">
+        <v>1.67</v>
+      </c>
+      <c r="AN10">
+        <v>1.25</v>
+      </c>
+      <c r="AO10">
+        <v>1.31</v>
+      </c>
+      <c r="AP10">
+        <v>1.66</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>2.25</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>9</v>
+      </c>
+      <c r="BG10">
+        <v>6</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>8</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5539305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45011.83333333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2.25</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>1.38</v>
+      </c>
+      <c r="X11">
+        <v>2.81</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1.45</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>5.75</v>
+      </c>
+      <c r="AF11">
+        <v>1.05</v>
+      </c>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AH11">
+        <v>1.28</v>
+      </c>
+      <c r="AI11">
+        <v>3.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1.86</v>
+      </c>
+      <c r="AK11">
+        <v>1.86</v>
+      </c>
+      <c r="AL11">
+        <v>2.01</v>
+      </c>
+      <c r="AM11">
+        <v>1.68</v>
+      </c>
+      <c r="AN11">
+        <v>1.08</v>
+      </c>
+      <c r="AO11">
+        <v>1.19</v>
+      </c>
+      <c r="AP11">
+        <v>2.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>2</v>
+      </c>
+      <c r="BH11">
+        <v>11</v>
+      </c>
+      <c r="BI11">
+        <v>2</v>
+      </c>
+      <c r="BJ11">
+        <v>11</v>
+      </c>
+      <c r="BK11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3594,6 +3594,412 @@
       </c>
       <c r="BK15" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5539312</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45015.875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Independiente Juniors</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5539318</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45019.875</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Imbabura SC</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Manta FC</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['43', '90']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -4000,6 +4000,615 @@
       </c>
       <c r="BK17" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5539315</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45020.875</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>9 de Octubre</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>América de Quito</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['2', '63', '79']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5539316</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45021.70833333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cuniburo</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chacaritas</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5539317</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45021.70833333334</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Independiente Juniors</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['9', '86']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4609,6 +4609,209 @@
       </c>
       <c r="BK20" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5539319</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ecuador Primera Categoría Serie B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45022.875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Macará</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Guayaquil</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Ecuador Primera Categoría Serie B_2023.xlsx
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5539316</v>
+        <v>5539317</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4230,140 +4230,140 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Independiente Juniors</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['9', '86']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T19" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X19" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.62</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>1.08</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.35</v>
+        <v>8.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="n">
         <v>0.5</v>
       </c>
-      <c r="AR19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AU19" t="n">
-        <v>0.89</v>
+        <v>1.66</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -4390,22 +4390,22 @@
         <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH19" t="n">
         <v>9</v>
       </c>
       <c r="BI19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5539317</v>
+        <v>5539316</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4433,140 +4433,140 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Independiente Juniors</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['9', '86']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X20" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>2.62</v>
       </c>
       <c r="AF20" t="n">
         <v>1.08</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="AH20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV20" t="n">
         <v>1.43</v>
       </c>
-      <c r="AI20" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0.9</v>
-      </c>
       <c r="AW20" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -4593,22 +4593,22 @@
         <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH20" t="n">
         <v>9</v>
       </c>
       <c r="BI20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
